--- a/cncrs/input/非居民金融账户涉税信息采集表-C1YINUFUXUEZCI.xlsx
+++ b/cncrs/input/非居民金融账户涉税信息采集表-C1YINUFUXUEZCI.xlsx
@@ -3828,6 +3828,12 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3839,12 +3845,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4152,7 +4152,7 @@
   <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4214,11 +4214,11 @@
       <c r="B1" s="3"/>
     </row>
     <row r="3" spans="1:55" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -4523,65 +4523,65 @@
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="35" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="36" t="s">
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
     </row>
     <row r="11" spans="1:55" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -4906,7 +4906,7 @@
         <v>123459</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>1074</v>
@@ -4914,7 +4914,7 @@
       <c r="E13" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="33">
         <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
@@ -4923,16 +4923,16 @@
       <c r="H13" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <v>13</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="33">
         <v>13</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="33">
         <v>13</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="33">
         <v>13</v>
       </c>
       <c r="M13" s="14" t="s">
@@ -4947,7 +4947,7 @@
       <c r="P13" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="34">
         <v>29277</v>
       </c>
       <c r="R13" s="14" t="s">
@@ -5014,13 +5014,13 @@
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="37"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -5070,13 +5070,13 @@
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="28"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -5126,13 +5126,13 @@
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="28"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>

--- a/cncrs/input/非居民金融账户涉税信息采集表-C1YINUFUXUEZCI.xlsx
+++ b/cncrs/input/非居民金融账户涉税信息采集表-C1YINUFUXUEZCI.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1110">
   <si>
     <t>账户类别</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3444,10 +3444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M-男</t>
     <rPh sb="2" eb="3">
       <t>nan</t>
@@ -3550,12 +3546,14 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3596,6 +3594,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3728,7 +3727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3816,9 +3815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3831,9 +3827,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3845,6 +3838,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4149,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4214,11 +4210,11 @@
       <c r="B1" s="3"/>
     </row>
     <row r="3" spans="1:55" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -4399,7 +4395,7 @@
         <v>1073</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C6" s="27">
         <v>43100</v>
@@ -4523,65 +4519,65 @@
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="37" t="s">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="38" t="s">
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="38"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="38"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
     </row>
     <row r="11" spans="1:55" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -4648,10 +4644,10 @@
       <c r="V11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="W11" s="29" t="s">
         <v>1068</v>
       </c>
-      <c r="X11" s="30" t="s">
+      <c r="X11" s="29" t="s">
         <v>1066</v>
       </c>
       <c r="Y11" s="5" t="s">
@@ -4678,10 +4674,10 @@
       <c r="AF11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG11" s="31" t="s">
+      <c r="AG11" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="AH11" s="31" t="s">
+      <c r="AH11" s="30" t="s">
         <v>1070</v>
       </c>
       <c r="AI11" s="7" t="s">
@@ -4720,10 +4716,10 @@
       <c r="AT11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AU11" s="32" t="s">
+      <c r="AU11" s="31" t="s">
         <v>1068</v>
       </c>
-      <c r="AV11" s="32" t="s">
+      <c r="AV11" s="31" t="s">
         <v>1066</v>
       </c>
       <c r="AW11" s="9" t="s">
@@ -4914,44 +4910,44 @@
       <c r="E13" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>13</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>1091</v>
       </c>
       <c r="H13" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I13" s="32">
+        <v>13</v>
+      </c>
+      <c r="J13" s="32">
+        <v>13</v>
+      </c>
+      <c r="K13" s="32">
+        <v>13</v>
+      </c>
+      <c r="L13" s="32">
+        <v>13</v>
+      </c>
+      <c r="M13" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="I13" s="33">
-        <v>13</v>
-      </c>
-      <c r="J13" s="33">
-        <v>13</v>
-      </c>
-      <c r="K13" s="33">
-        <v>13</v>
-      </c>
-      <c r="L13" s="33">
-        <v>13</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="O13" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>1103</v>
-      </c>
       <c r="P13" s="14" t="s">
-        <v>1099</v>
-      </c>
-      <c r="Q13" s="34">
+        <v>1098</v>
+      </c>
+      <c r="Q13" s="37">
         <v>29277</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S13" s="14" t="s">
         <v>1084</v>
@@ -4960,22 +4956,22 @@
         <v>1237</v>
       </c>
       <c r="U13" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="W13" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>1106</v>
-      </c>
-      <c r="W13" s="14" t="s">
+      <c r="X13" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="X13" s="14" t="s">
-        <v>1109</v>
-      </c>
       <c r="Y13" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AA13" s="14">
         <v>123546</v>
@@ -5006,26 +5002,24 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>1096</v>
-      </c>
+    <row r="14" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="33"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -5050,7 +5044,7 @@
       <c r="AM14" s="14"/>
       <c r="AN14" s="14"/>
       <c r="AO14" s="14"/>
-      <c r="AP14" s="29"/>
+      <c r="AP14" s="14"/>
       <c r="AQ14" s="14"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -5062,26 +5056,24 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>1096</v>
-      </c>
+    <row r="15" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="33"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="28"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -5118,26 +5110,24 @@
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>1096</v>
-      </c>
+    <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="28"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
@@ -5174,6 +5164,492 @@
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
     </row>
+    <row r="17" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+    </row>
+    <row r="18" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+    </row>
+    <row r="19" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+    </row>
+    <row r="20" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+    </row>
+    <row r="21" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+    </row>
+    <row r="22" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+    </row>
+    <row r="23" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+    </row>
+    <row r="24" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+    </row>
+    <row r="25" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B10:L10"/>
@@ -5192,13 +5668,13 @@
           <x14:formula1>
             <xm:f>'参考-ISO国家代码表'!$E$2:$E$248</xm:f>
           </x14:formula1>
-          <xm:sqref>AV1:AX3 AW5:AX1048576 X4:Y4 AH1:AI3 AI5:AI1048576 AV5:AV10 X1:Z3 X13:X1048576 Y5:Z1048576 X5:X10 V4 AF4 AH4:AH10 AT4 AV4:AW4 AH13:AH1048576 AV13:AV1048576</xm:sqref>
+          <xm:sqref>AV1:AX3 X4:Y4 AH1:AI3 AV5:AV10 X1:Z3 X5:X10 V4 AF4 AH4:AH10 AT4 AV4:AW4 AW5:AX1048576 AI5:AI1048576 X13:X1048576 Y5:Z1048576 AH13:AH1048576 AV13:AV1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>参考类型!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ1:AQ3 AQ5:AQ1048576 R4 S1:S3 S5:S1048576 AP4</xm:sqref>
+          <xm:sqref>AQ1:AQ3 R4 S1:S3 AP4 AQ5:AQ1048576 S5:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5228,19 +5704,19 @@
           <x14:formula1>
             <xm:f>参考类型!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>G13</xm:sqref>
+          <xm:sqref>G13:G25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>参考类型!$A$18:$A$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:E13</xm:sqref>
+          <xm:sqref>C13:E25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>参考类型!$A$26:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>P13:P16</xm:sqref>
+          <xm:sqref>P13:P25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9865,17 +10341,17 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
